--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf8-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf8</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf8</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H2">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.02079910527133333</v>
+        <v>0.02285660173333334</v>
       </c>
       <c r="R2">
-        <v>0.187191947442</v>
+        <v>0.2057094156</v>
       </c>
       <c r="S2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="T2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H3">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.002741861223999999</v>
+        <v>0.002793147413333333</v>
       </c>
       <c r="R3">
-        <v>0.024676751016</v>
+        <v>0.02513832672</v>
       </c>
       <c r="S3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="T3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H4">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>0.4572330496513334</v>
+        <v>0.0007784921155555556</v>
       </c>
       <c r="R4">
-        <v>4.115097446861999</v>
+        <v>0.00700642904</v>
       </c>
       <c r="S4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="T4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.024842</v>
+        <v>0.02530666666666667</v>
       </c>
       <c r="H5">
-        <v>0.074526</v>
+        <v>0.07592</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N5">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O5">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P5">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q5">
+        <v>0.696669158408889</v>
+      </c>
+      <c r="R5">
+        <v>6.270022425680001</v>
+      </c>
+      <c r="S5">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="T5">
+        <v>0.9616041035407231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.042347</v>
-      </c>
-      <c r="O5">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P5">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q5">
-        <v>0.0003506613913333334</v>
-      </c>
-      <c r="R5">
-        <v>0.003155952522</v>
-      </c>
-      <c r="S5">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="T5">
-        <v>0.0007288368435552499</v>
+      <c r="G6">
+        <v>0.02530666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.07592</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.164668</v>
+      </c>
+      <c r="O6">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P6">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q6">
+        <v>0.001389066062222222</v>
+      </c>
+      <c r="R6">
+        <v>0.01250159456</v>
+      </c>
+      <c r="S6">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="T6">
+        <v>0.001917311265181736</v>
       </c>
     </row>
   </sheetData>
